--- a/public/Database/danh-sach-don-vi-quan-ly.xlsx
+++ b/public/Database/danh-sach-don-vi-quan-ly.xlsx
@@ -1,21 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\ocopangiang\public\Database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55196AFD-F8E1-43CA-8B49-481BB5193482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="181029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="94">
   <si>
     <t>Tỉnh</t>
   </si>
@@ -47,6 +62,15 @@
     <t>Hình Ảnh</t>
   </si>
   <si>
+    <t>Tỉnh Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Thành phố Phan Rang-Tháp Chàm</t>
+  </si>
+  <si>
+    <t>Phường Mỹ Bình</t>
+  </si>
+  <si>
     <t>03 Lê Triệu Kiết</t>
   </si>
   <si>
@@ -68,6 +92,15 @@
     <t>donviquanly/so-ke-hoach-va-dau-tu-tp-long-xuyen.jpg</t>
   </si>
   <si>
+    <t>Tỉnh An Giang</t>
+  </si>
+  <si>
+    <t>Huyện Chợ Mới</t>
+  </si>
+  <si>
+    <t>Thị trấn Chợ Mới</t>
+  </si>
+  <si>
     <t>Đường Nguyễn Huệ, Ấp Thị</t>
   </si>
   <si>
@@ -89,6 +122,12 @@
     <t>donviquanly/so-ke-hoach-va-dau-tu-huyen-cho-moi.jpg</t>
   </si>
   <si>
+    <t>Thành phố Châu Đốc</t>
+  </si>
+  <si>
+    <t>Phường Châu Phú B</t>
+  </si>
+  <si>
     <t>số , Lê Lợi</t>
   </si>
   <si>
@@ -110,6 +149,12 @@
     <t>donviquanly/so-ke-hoach-va-dau-tu-tp-chau-doc.jpg</t>
   </si>
   <si>
+    <t>Huyện An Phú</t>
+  </si>
+  <si>
+    <t>Thị trấn An Phú</t>
+  </si>
+  <si>
     <t>số 4252, đường Bạch Đằng</t>
   </si>
   <si>
@@ -131,6 +176,12 @@
     <t>donviquanly/so-ke-hoach-va-dau-tu-huyen-an-phu.jpg</t>
   </si>
   <si>
+    <t>Thị xã Tân Châu</t>
+  </si>
+  <si>
+    <t>Phường Long Thạnh</t>
+  </si>
+  <si>
     <t>đường Trần Hưng Đạo</t>
   </si>
   <si>
@@ -152,6 +203,15 @@
     <t>donviquanly/so-ke-hoach-va-dau-tu-tx-tan-chau.jpg</t>
   </si>
   <si>
+    <t>Tỉnh Bình Định</t>
+  </si>
+  <si>
+    <t>Huyện Phù Mỹ</t>
+  </si>
+  <si>
+    <t>Thị trấn Phù Mỹ</t>
+  </si>
+  <si>
     <t>số 1 , đường Trương Định</t>
   </si>
   <si>
@@ -173,6 +233,12 @@
     <t>donviquanly/so-ke-hoach-va-dau-tu-huyen-phu-tan.jpg</t>
   </si>
   <si>
+    <t>Huyện Châu Phú</t>
+  </si>
+  <si>
+    <t>Thị trấn Cái Dầu</t>
+  </si>
+  <si>
     <t>ấp Vĩnh Thành</t>
   </si>
   <si>
@@ -194,6 +260,12 @@
     <t>donviquanly/so-ke-hoach-va-dau-tu-huyen-chau-phu.jpg</t>
   </si>
   <si>
+    <t>Huyện Tịnh Biên</t>
+  </si>
+  <si>
+    <t>Thị trấn Tịnh Biên</t>
+  </si>
+  <si>
     <t>khóm xuân hòa</t>
   </si>
   <si>
@@ -213,6 +285,12 @@
   </si>
   <si>
     <t>donviquanly/so-ke-hoach-va-dau-tu-huyen-tinh-bien.jpg</t>
+  </si>
+  <si>
+    <t>Huyện Tri Tôn</t>
+  </si>
+  <si>
+    <t>Thị trấn Tri Tôn</t>
   </si>
   <si>
     <t>152 Trần Hưng Đạo</t>
@@ -239,14 +317,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -257,28 +330,37 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -568,31 +650,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="true" style="0"/>
-    <col min="2" max="2" width="10" customWidth="true" style="0"/>
-    <col min="3" max="3" width="10" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10" customWidth="true" style="0"/>
-    <col min="7" max="7" width="10" customWidth="true" style="0"/>
-    <col min="8" max="8" width="10" customWidth="true" style="0"/>
-    <col min="9" max="9" width="10" customWidth="true" style="0"/>
-    <col min="10" max="10" width="10" customWidth="true" style="0"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,306 +701,296 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B2">
-        <v>631</v>
-      </c>
-      <c r="C2">
-        <v>9868</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>57</v>
-      </c>
-      <c r="B3">
-        <v>640</v>
-      </c>
-      <c r="C3">
-        <v>9989</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>57</v>
-      </c>
-      <c r="B4">
-        <v>632</v>
-      </c>
-      <c r="C4">
-        <v>9881</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>57</v>
-      </c>
-      <c r="B5">
-        <v>633</v>
-      </c>
-      <c r="C5">
-        <v>9888</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>634</v>
-      </c>
-      <c r="C6">
-        <v>9902</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>57</v>
-      </c>
-      <c r="B7">
-        <v>635</v>
-      </c>
-      <c r="C7">
-        <v>9916</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>57</v>
-      </c>
-      <c r="B8">
-        <v>636</v>
-      </c>
-      <c r="C8">
-        <v>9934</v>
-      </c>
-      <c r="D8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>57</v>
-      </c>
-      <c r="B9">
-        <v>637</v>
-      </c>
-      <c r="C9">
-        <v>9953</v>
-      </c>
-      <c r="D9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>57</v>
-      </c>
-      <c r="B10">
-        <v>638</v>
-      </c>
-      <c r="C10">
-        <v>9961</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="J10" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>